--- a/terrain/Report/Data/Formatted/AIConfigFormatted.xlsx
+++ b/terrain/Report/Data/Formatted/AIConfigFormatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lizardbot\terrain\Report\Data\Formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C217FB-AF8F-4C95-B5D3-C7A6BAE0F4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363970E8-4C59-4394-9069-C206A1FA2F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5364" yWindow="876" windowWidth="17280" windowHeight="12084" xr2:uid="{7BCDFC9F-3AC9-4EF9-9723-35C36DFC9674}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7BCDFC9F-3AC9-4EF9-9723-35C36DFC9674}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="13">
   <si>
     <t>ATTEMPT</t>
   </si>
@@ -79,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +117,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +144,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -128,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +176,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,11 +491,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3C4000-5345-42F8-AAA4-25B00B30B4A9}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +511,7 @@
     <col min="11" max="11" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -509,8 +545,12 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M1" t="str" cm="1">
+        <f t="array" ref="M1:M22">_xlfn.UNIQUE(G:G)</f>
+        <v xml:space="preserve"> RecombinationRate</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -544,8 +584,11 @@
       <c r="K2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>0.76650700000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -579,8 +622,11 @@
       <c r="K3" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>0.13700080000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -614,8 +660,11 @@
       <c r="K4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>0.75480639999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -649,8 +698,11 @@
       <c r="K5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>0.43900830000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -684,8 +736,11 @@
       <c r="K6" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>0.1545686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -719,8 +774,11 @@
       <c r="K7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>0.12653539999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -754,129 +812,990 @@
       <c r="K8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="M8">
+        <v>0.18884970000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="G9"/>
-      <c r="I9"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>50</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0.76650700000000005</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.30503190000000002</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="5">
         <v>9</v>
       </c>
-      <c r="G10"/>
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>0.10048609999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>50</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>20</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.76650700000000005</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.30503190000000002</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="5">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>0.88540960000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="G11"/>
-      <c r="I11"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="G12"/>
-      <c r="I12"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0.12653539999999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11">
+        <v>0.55251430000000001</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <v>9.1093430000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.76650700000000005</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.30503190000000002</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="6">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>0.3957254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="G13"/>
-      <c r="I13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>0.18884970000000001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13">
+        <v>0.89857180000000003</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <v>0.42400149999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="G14"/>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>0.10048609999999999</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14">
+        <v>0.5868719</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>0.29317880000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="G15"/>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>0.76650700000000005</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>0.30503190000000002</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+      <c r="M15">
+        <v>0.13745859999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="G16"/>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>0.88540960000000002</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16">
+        <v>0.62469819999999998</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>0.50183420000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="G17"/>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>9.1093430000000003E-2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>0.92854760000000003</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17">
+        <v>19</v>
+      </c>
+      <c r="M17">
+        <v>0.20910860000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="G18"/>
-      <c r="I18"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="5">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5">
+        <v>50</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="5">
+        <v>20</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.76650700000000005</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0.30503190000000002</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="5">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>1.6166449999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="G19"/>
-      <c r="I19"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>0.3957254</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19">
+        <v>0.25960689999999997</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>19</v>
+      </c>
+      <c r="M19">
+        <v>0.1216116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="G20"/>
-      <c r="I20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.42400149999999998</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20">
+        <v>0.8684151</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>0.23403160000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="G21"/>
-      <c r="I21"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>0.76650700000000005</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>0.30503190000000002</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="M21">
+        <v>0.8257333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="G22"/>
-      <c r="I22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="5">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5">
+        <v>50</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="5">
+        <v>20</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.76650700000000005</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="5">
+        <v>0.30503190000000002</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="5">
+        <v>9</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="G23"/>
-      <c r="I23"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>0.29317880000000002</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23">
+        <v>0.47716459999999999</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="G24"/>
-      <c r="I24"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>0.13745859999999999</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24">
+        <v>0.4809716</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="G25"/>
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>0.50183420000000001</v>
+      </c>
+      <c r="H25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25">
+        <v>0.2818003</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>0.20910860000000001</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26">
+        <v>0.64342960000000005</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>0.50183420000000001</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27">
+        <v>0.2818003</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>0.50183420000000001</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28">
+        <v>0.2818003</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>1.6166449999999999E-2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29">
+        <v>9.8074209999999995E-2</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>0.1216116</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30">
+        <v>0.65238949999999996</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <v>0.23403160000000001</v>
+      </c>
+      <c r="H31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31">
+        <v>3.7670740000000001E-2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>0.50183420000000001</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32">
+        <v>0.2818003</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>0.50183420000000001</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33">
+        <v>0.2818003</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6">
+        <v>33</v>
+      </c>
+      <c r="C34" s="6">
+        <v>50</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="6">
+        <v>20</v>
+      </c>
+      <c r="F34" s="6">
+        <v>6</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.8257333</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.1671028</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/terrain/Report/Data/Formatted/AIConfigFormatted.xlsx
+++ b/terrain/Report/Data/Formatted/AIConfigFormatted.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lizardbot\terrain\Report\Data\Formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363970E8-4C59-4394-9069-C206A1FA2F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D81825D-B581-4048-A812-F261A09876D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7BCDFC9F-3AC9-4EF9-9723-35C36DFC9674}"/>
   </bookViews>
@@ -31,28 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,11 +469,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3C4000-5345-42F8-AAA4-25B00B30B4A9}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +489,7 @@
     <col min="11" max="11" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -545,12 +523,8 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="str" cm="1">
-        <f t="array" ref="M1:M22">_xlfn.UNIQUE(G:G)</f>
-        <v xml:space="preserve"> RecombinationRate</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -584,11 +558,8 @@
       <c r="K2">
         <v>9</v>
       </c>
-      <c r="M2">
-        <v>0.76650700000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -622,11 +593,8 @@
       <c r="K3" s="5">
         <v>9</v>
       </c>
-      <c r="M3">
-        <v>0.13700080000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -660,11 +628,8 @@
       <c r="K4">
         <v>13</v>
       </c>
-      <c r="M4">
-        <v>0.75480639999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -698,11 +663,8 @@
       <c r="K5">
         <v>11</v>
       </c>
-      <c r="M5">
-        <v>0.43900830000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -736,11 +698,8 @@
       <c r="K6" s="5">
         <v>9</v>
       </c>
-      <c r="M6">
-        <v>0.1545686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -774,11 +733,8 @@
       <c r="K7">
         <v>7</v>
       </c>
-      <c r="M7">
-        <v>0.12653539999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -812,11 +768,8 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="M8">
-        <v>0.18884970000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -850,11 +803,8 @@
       <c r="K9" s="5">
         <v>9</v>
       </c>
-      <c r="M9">
-        <v>0.10048609999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -888,11 +838,8 @@
       <c r="K10" s="5">
         <v>9</v>
       </c>
-      <c r="M10">
-        <v>0.88540960000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -926,11 +873,8 @@
       <c r="K11">
         <v>15</v>
       </c>
-      <c r="M11">
-        <v>9.1093430000000003E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -964,11 +908,8 @@
       <c r="K12" s="6">
         <v>9</v>
       </c>
-      <c r="M12">
-        <v>0.3957254</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1002,11 +943,8 @@
       <c r="K13">
         <v>16</v>
       </c>
-      <c r="M13">
-        <v>0.42400149999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1040,11 +978,8 @@
       <c r="K14">
         <v>9</v>
       </c>
-      <c r="M14">
-        <v>0.29317880000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1078,11 +1013,8 @@
       <c r="K15">
         <v>9</v>
       </c>
-      <c r="M15">
-        <v>0.13745859999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1116,11 +1048,8 @@
       <c r="K16">
         <v>10</v>
       </c>
-      <c r="M16">
-        <v>0.50183420000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1154,11 +1083,8 @@
       <c r="K17">
         <v>19</v>
       </c>
-      <c r="M17">
-        <v>0.20910860000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -1192,11 +1118,8 @@
       <c r="K18" s="5">
         <v>9</v>
       </c>
-      <c r="M18">
-        <v>1.6166449999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1230,11 +1153,8 @@
       <c r="K19">
         <v>19</v>
       </c>
-      <c r="M19">
-        <v>0.1216116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1268,11 +1188,8 @@
       <c r="K20">
         <v>2</v>
       </c>
-      <c r="M20">
-        <v>0.23403160000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1306,11 +1223,8 @@
       <c r="K21">
         <v>9</v>
       </c>
-      <c r="M21">
-        <v>0.8257333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -1344,11 +1258,8 @@
       <c r="K22" s="5">
         <v>9</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1383,7 +1294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1418,7 +1329,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1453,7 +1364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1488,7 +1399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1523,7 +1434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1558,7 +1469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1593,7 +1504,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1628,7 +1539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1663,7 +1574,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1698,7 +1609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1766,36 +1677,6 @@
       </c>
       <c r="K34" s="6">
         <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/terrain/Report/Data/Formatted/AIConfigFormatted.xlsx
+++ b/terrain/Report/Data/Formatted/AIConfigFormatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lizardbot\terrain\Report\Data\Formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D81825D-B581-4048-A812-F261A09876D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E132C8-2DA1-42D2-931E-35C8BA3530B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7BCDFC9F-3AC9-4EF9-9723-35C36DFC9674}"/>
+    <workbookView xWindow="12660" yWindow="2100" windowWidth="17280" windowHeight="12084" xr2:uid="{7BCDFC9F-3AC9-4EF9-9723-35C36DFC9674}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="12">
   <si>
     <t>ATTEMPT</t>
   </si>
@@ -71,9 +71,6 @@
   <si>
     <t xml:space="preserve"> Any</t>
   </si>
-  <si>
-    <t>ID</t>
-  </si>
 </sst>
 </file>
 
@@ -103,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +125,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -141,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -155,6 +158,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,1213 +473,1559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3C4000-5345-42F8-AAA4-25B00B30B4A9}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
-    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2">
         <v>0.76650700000000005</v>
       </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
         <v>0.30503190000000002</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2">
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
-        <v>50</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5">
-        <v>20</v>
-      </c>
       <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5">
         <v>0.76650700000000005</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="5">
+      <c r="G3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="5">
         <v>0.30503190000000002</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="5">
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>50</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4">
         <v>0.13700080000000001</v>
       </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4">
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
         <v>0.18941359999999999</v>
       </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4">
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
+      <c r="B5" s="7">
+        <v>50</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7">
         <v>7</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="7">
         <v>0.75480639999999999</v>
       </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7">
         <v>0.36748069999999999</v>
       </c>
-      <c r="J5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="I5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>20</v>
       </c>
       <c r="E6" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F6" s="5">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5">
         <v>0.76650700000000005</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="G6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="5">
         <v>0.30503190000000002</v>
       </c>
-      <c r="J6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
         <v>0.43900830000000002</v>
       </c>
-      <c r="H7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7">
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7">
         <v>0.91599549999999996</v>
       </c>
-      <c r="J7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7">
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
         <v>0.1545686</v>
       </c>
-      <c r="H8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8">
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
         <v>0.32260519999999998</v>
       </c>
-      <c r="J8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8">
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5">
-        <v>50</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
+        <v>20</v>
       </c>
       <c r="E9" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F9" s="5">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5">
         <v>0.76650700000000005</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="G9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="5">
         <v>0.30503190000000002</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="5">
+      <c r="I9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5">
+        <v>50</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.76650700000000005</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.30503190000000002</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="5">
         <v>9</v>
       </c>
-      <c r="C10" s="5">
-        <v>50</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5">
-        <v>20</v>
-      </c>
-      <c r="F10" s="5">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>0.12653539999999999</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>0.55251430000000001</v>
+      </c>
+      <c r="I11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>50</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6">
+        <v>20</v>
+      </c>
+      <c r="E12" s="6">
         <v>2</v>
       </c>
-      <c r="G10" s="5">
+      <c r="F12" s="6">
         <v>0.76650700000000005</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6">
         <v>0.30503190000000002</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="I12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>20</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>0.12653539999999999</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11">
-        <v>0.55251430000000001</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>11</v>
-      </c>
-      <c r="C12" s="6">
-        <v>50</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="6">
-        <v>20</v>
-      </c>
-      <c r="F12" s="6">
-        <v>2</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.76650700000000005</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.30503190000000002</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>6</v>
-      </c>
-      <c r="G13">
         <v>0.18884970000000001</v>
       </c>
-      <c r="H13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13">
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
         <v>0.89857180000000003</v>
       </c>
-      <c r="J13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13">
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
         <v>0.10048609999999999</v>
       </c>
-      <c r="H14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14">
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14">
         <v>0.5868719</v>
       </c>
-      <c r="J14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14">
+      <c r="I14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F15">
+        <v>0.76650700000000005</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>0.30503190000000002</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>50</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="7">
+        <v>20</v>
+      </c>
+      <c r="E16" s="7">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>0.76650700000000005</v>
-      </c>
-      <c r="H15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15">
-        <v>0.30503190000000002</v>
-      </c>
-      <c r="J15" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16">
-        <v>20</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16">
+      <c r="F16" s="7">
         <v>0.88540960000000002</v>
       </c>
-      <c r="H16" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16">
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
         <v>0.62469819999999998</v>
       </c>
-      <c r="J16" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
         <v>9.1093430000000003E-2</v>
       </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17">
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17">
         <v>0.92854760000000003</v>
       </c>
-      <c r="J17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17">
+      <c r="I17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="5">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5">
-        <v>50</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5">
+        <v>20</v>
       </c>
       <c r="E18" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F18" s="5">
-        <v>2</v>
-      </c>
-      <c r="G18" s="5">
         <v>0.76650700000000005</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="G18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="5">
         <v>0.30503190000000002</v>
       </c>
-      <c r="J18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="5">
+      <c r="I18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
       </c>
       <c r="E19">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>3</v>
-      </c>
-      <c r="G19">
         <v>0.3957254</v>
       </c>
-      <c r="H19" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19">
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19">
         <v>0.25960689999999997</v>
       </c>
-      <c r="J19" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19">
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20">
-        <v>50</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20">
-        <v>20</v>
-      </c>
-      <c r="F20">
+      <c r="B20" s="7">
+        <v>50</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="7">
+        <v>20</v>
+      </c>
+      <c r="E20" s="7">
         <v>1</v>
       </c>
-      <c r="G20">
+      <c r="F20" s="7">
         <v>0.42400149999999998</v>
       </c>
-      <c r="H20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20">
+      <c r="G20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="7">
         <v>0.8684151</v>
       </c>
-      <c r="J20" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20">
+      <c r="I20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
         <v>0.76650700000000005</v>
       </c>
-      <c r="H21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21">
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21">
         <v>0.30503190000000002</v>
       </c>
-      <c r="J21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21">
+      <c r="I21" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="5">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5">
-        <v>50</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5">
+        <v>20</v>
       </c>
       <c r="E22" s="5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F22" s="5">
-        <v>2</v>
-      </c>
-      <c r="G22" s="5">
         <v>0.76650700000000005</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="G22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="5">
         <v>0.30503190000000002</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="5">
+      <c r="I22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <v>50</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F23">
-        <v>6</v>
-      </c>
-      <c r="G23">
         <v>0.29317880000000002</v>
       </c>
-      <c r="H23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23">
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23">
         <v>0.47716459999999999</v>
       </c>
-      <c r="J23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23">
+      <c r="I23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <v>20</v>
-      </c>
-      <c r="F24">
+      <c r="B24" s="7">
+        <v>50</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7">
+        <v>20</v>
+      </c>
+      <c r="E24" s="7">
         <v>8</v>
       </c>
-      <c r="G24">
+      <c r="F24" s="7">
         <v>0.13745859999999999</v>
       </c>
-      <c r="H24" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24">
+      <c r="G24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="7">
         <v>0.4809716</v>
       </c>
-      <c r="J24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24">
+      <c r="I24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
         <v>0.50183420000000001</v>
       </c>
-      <c r="H25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25">
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25">
         <v>0.2818003</v>
       </c>
-      <c r="J25" t="s">
-        <v>11</v>
-      </c>
-      <c r="K25">
+      <c r="I25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>50</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26">
         <v>0.20910860000000001</v>
       </c>
-      <c r="H26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26">
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
         <v>0.64342960000000005</v>
       </c>
-      <c r="J26" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26">
+      <c r="I26" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27">
-        <v>50</v>
-      </c>
-      <c r="D27" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27">
         <v>0.50183420000000001</v>
       </c>
-      <c r="H27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I27">
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27">
         <v>0.2818003</v>
       </c>
-      <c r="J27" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27">
+      <c r="I27" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28">
-        <v>50</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
       </c>
       <c r="E28">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28">
         <v>0.50183420000000001</v>
       </c>
-      <c r="H28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28">
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28">
         <v>0.2818003</v>
       </c>
-      <c r="J28" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28">
+      <c r="I28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
         <v>1.6166449999999999E-2</v>
       </c>
-      <c r="H29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29">
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29">
         <v>9.8074209999999995E-2</v>
       </c>
-      <c r="J29" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29">
+      <c r="I29" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
-        <v>29</v>
-      </c>
-      <c r="C30">
-        <v>50</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
       </c>
       <c r="E30">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F30">
-        <v>9</v>
-      </c>
-      <c r="G30">
         <v>0.1216116</v>
       </c>
-      <c r="H30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I30">
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30">
         <v>0.65238949999999996</v>
       </c>
-      <c r="J30" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30">
+      <c r="I30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31">
-        <v>50</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31">
         <v>0.23403160000000001</v>
       </c>
-      <c r="H31" t="s">
-        <v>11</v>
-      </c>
-      <c r="I31">
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31">
         <v>3.7670740000000001E-2</v>
       </c>
-      <c r="J31" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31">
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32">
-        <v>50</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
       </c>
       <c r="E32">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32">
         <v>0.50183420000000001</v>
       </c>
-      <c r="H32" t="s">
-        <v>11</v>
-      </c>
-      <c r="I32">
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32">
         <v>0.2818003</v>
       </c>
-      <c r="J32" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32">
+      <c r="I32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33">
-        <v>50</v>
-      </c>
-      <c r="D33" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>20</v>
       </c>
       <c r="E33">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>4</v>
-      </c>
-      <c r="G33">
         <v>0.50183420000000001</v>
       </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
-      <c r="I33">
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33">
         <v>0.2818003</v>
       </c>
-      <c r="J33" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33">
+      <c r="I33" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="6">
-        <v>33</v>
-      </c>
-      <c r="C34" s="6">
-        <v>50</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>10</v>
+        <v>50</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="6">
+        <v>20</v>
       </c>
       <c r="E34" s="6">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="F34" s="6">
+        <v>0.8257333</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0.1671028</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>0.7490829</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35">
+        <v>0.35909990000000003</v>
+      </c>
+      <c r="I35" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>0.7490829</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36">
+        <v>0.35909990000000003</v>
+      </c>
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>0.7490829</v>
+      </c>
+      <c r="G37" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37">
+        <v>0.35909990000000003</v>
+      </c>
+      <c r="I37" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38">
+        <v>0.89442719999999998</v>
+      </c>
+      <c r="G38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38">
+        <v>0.49210340000000002</v>
+      </c>
+      <c r="I38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7">
+        <v>50</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="7">
+        <v>20</v>
+      </c>
+      <c r="E39" s="7">
+        <v>5</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.99074240000000002</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="7">
+        <v>1.7410869999999998E-2</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>50</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>0.84748409999999996</v>
+      </c>
+      <c r="G40" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40">
+        <v>0.17506169999999999</v>
+      </c>
+      <c r="I40" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41">
+        <v>0.79774679999999998</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41">
+        <v>0.30407489999999998</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
+      </c>
+      <c r="E42">
         <v>6</v>
       </c>
-      <c r="G34" s="6">
-        <v>0.8257333</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="6">
-        <v>0.1671028</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="6">
+      <c r="F42">
+        <v>0.5863351</v>
+      </c>
+      <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42">
+        <v>0.1614757</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>20</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>0.75563530000000001</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43">
+        <v>0.47700939999999997</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>0.81949689999999997</v>
+      </c>
+      <c r="G44" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44">
+        <v>0.22002469999999999</v>
+      </c>
+      <c r="I44" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>0.75324679999999999</v>
+      </c>
+      <c r="G45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45">
+        <v>0.2467027</v>
+      </c>
+      <c r="I45" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>20</v>
+      </c>
+      <c r="E46">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <v>0.75430240000000004</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46">
+        <v>0.28693000000000002</v>
+      </c>
+      <c r="I46" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>0.75121530000000003</v>
+      </c>
+      <c r="G47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47">
+        <v>0.29098289999999999</v>
+      </c>
+      <c r="I47" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7">
+        <v>50</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="7">
+        <v>20</v>
+      </c>
+      <c r="E48" s="7">
+        <v>1</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.83860190000000001</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="7">
+        <v>0.15348220000000001</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="7">
         <v>5</v>
       </c>
     </row>

--- a/terrain/Report/Data/Formatted/AIConfigFormatted.xlsx
+++ b/terrain/Report/Data/Formatted/AIConfigFormatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lizardbot\terrain\Report\Data\Formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E132C8-2DA1-42D2-931E-35C8BA3530B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073DFFFC-5A16-4E62-AA73-5877015238E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="2100" windowWidth="17280" windowHeight="12084" xr2:uid="{7BCDFC9F-3AC9-4EF9-9723-35C36DFC9674}"/>
+    <workbookView xWindow="13020" yWindow="1368" windowWidth="17280" windowHeight="12084" xr2:uid="{7BCDFC9F-3AC9-4EF9-9723-35C36DFC9674}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,12 +122,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -158,7 +152,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,8 +470,8 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N43" sqref="N43"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,34 +552,34 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>50</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5">
-        <v>20</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="B3" s="6">
+        <v>50</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>0.76650700000000005</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="6">
         <v>0.30503190000000002</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="I3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="6">
         <v>9</v>
       </c>
     </row>
@@ -622,66 +616,66 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
-        <v>50</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="B5" s="5">
+        <v>50</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5">
         <v>7</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>0.75480639999999999</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5">
         <v>0.36748069999999999</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="I5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="5">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>50</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5">
-        <v>20</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="B6" s="6">
+        <v>50</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6">
         <v>2</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>0.76650700000000005</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="5">
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="6">
         <v>0.30503190000000002</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="5">
+      <c r="I6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="6">
         <v>9</v>
       </c>
     </row>
@@ -750,66 +744,66 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <v>50</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="B9" s="6">
+        <v>50</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6">
+        <v>20</v>
+      </c>
+      <c r="E9" s="6">
         <v>2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>0.76650700000000005</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="5">
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="6">
         <v>0.30503190000000002</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" s="5">
+      <c r="I9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
-        <v>50</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="B10" s="6">
+        <v>50</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="6">
+        <v>20</v>
+      </c>
+      <c r="E10" s="6">
         <v>2</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>0.76650700000000005</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="5">
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="6">
         <v>0.30503190000000002</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="I10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="6">
         <v>9</v>
       </c>
     </row>
@@ -845,7 +839,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -974,34 +968,34 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="7">
-        <v>50</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="7">
-        <v>20</v>
-      </c>
-      <c r="E16" s="7">
+      <c r="B16" s="5">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5">
         <v>2</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>0.88540960000000002</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="G16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="5">
         <v>0.62469819999999998</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="7">
+      <c r="I16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="5">
         <v>10</v>
       </c>
     </row>
@@ -1038,34 +1032,34 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="5">
-        <v>50</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5">
-        <v>20</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="B18" s="6">
+        <v>50</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6">
+        <v>20</v>
+      </c>
+      <c r="E18" s="6">
         <v>2</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <v>0.76650700000000005</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="5">
+      <c r="G18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="6">
         <v>0.30503190000000002</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="5">
+      <c r="I18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1102,34 +1096,34 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="7">
-        <v>50</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="7">
-        <v>20</v>
-      </c>
-      <c r="E20" s="7">
+      <c r="B20" s="5">
+        <v>50</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5">
+        <v>20</v>
+      </c>
+      <c r="E20" s="5">
         <v>1</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="5">
         <v>0.42400149999999998</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="G20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="5">
         <v>0.8684151</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="I20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1166,34 +1160,34 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="5">
-        <v>50</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="5">
-        <v>20</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="B22" s="6">
+        <v>50</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6">
+        <v>20</v>
+      </c>
+      <c r="E22" s="6">
         <v>2</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="6">
         <v>0.76650700000000005</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="5">
+      <c r="G22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="6">
         <v>0.30503190000000002</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22" s="5">
+      <c r="I22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1230,34 +1224,34 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="7">
-        <v>50</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="7">
-        <v>20</v>
-      </c>
-      <c r="E24" s="7">
+      <c r="B24" s="5">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5">
+        <v>20</v>
+      </c>
+      <c r="E24" s="5">
         <v>8</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="5">
         <v>0.13745859999999999</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="G24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="5">
         <v>0.4809716</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24" s="7">
+      <c r="I24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="5">
         <v>19</v>
       </c>
     </row>
@@ -1549,7 +1543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1710,34 +1704,34 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="7">
-        <v>50</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="7">
-        <v>20</v>
-      </c>
-      <c r="E39" s="7">
+      <c r="B39" s="5">
+        <v>50</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="5">
+        <v>20</v>
+      </c>
+      <c r="E39" s="5">
         <v>5</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="5">
         <v>0.99074240000000002</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="7">
+      <c r="G39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="5">
         <v>1.7410869999999998E-2</v>
       </c>
-      <c r="I39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J39" s="7">
+      <c r="I39" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1998,34 +1992,34 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="7">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="7">
-        <v>50</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="7">
-        <v>20</v>
-      </c>
-      <c r="E48" s="7">
+      <c r="B48" s="5">
+        <v>50</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="5">
+        <v>20</v>
+      </c>
+      <c r="E48" s="5">
         <v>1</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="5">
         <v>0.83860190000000001</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="7">
+      <c r="G48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="5">
         <v>0.15348220000000001</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="7">
+      <c r="I48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="5">
         <v>5</v>
       </c>
     </row>
